--- a/KR_obtained.xlsx
+++ b/KR_obtained.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,16 @@
           <t>KRy</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>kixy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>KRxy</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -475,16 +485,22 @@
         <v>-0.04150853889943074</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06329370730185352</v>
+        <v>-0.06329690418339774</v>
       </c>
       <c r="D2" t="n">
-        <v>1.524835828483511</v>
+        <v>1.524912845926885</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.07408793560283858</v>
+        <v>-0.07408793560282487</v>
       </c>
       <c r="F2" t="n">
-        <v>1.784884208580385</v>
+        <v>1.784884208580055</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.0737589536323922</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.776958562938088</v>
       </c>
     </row>
     <row r="3">
@@ -495,16 +511,22 @@
         <v>-0.0355787476280835</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.05531576052175193</v>
+        <v>-0.05531576051911323</v>
       </c>
       <c r="D3" t="n">
-        <v>1.554741642398041</v>
+        <v>1.554741642323876</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05892971850495293</v>
+        <v>-0.05892971850495294</v>
       </c>
       <c r="F3" t="n">
         <v>1.65631795477921</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.05881483156124079</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.653088865747941</v>
       </c>
     </row>
     <row r="4">
@@ -515,16 +537,22 @@
         <v>-0.02964895635673625</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.04343807556436264</v>
+        <v>-0.04343807556509669</v>
       </c>
       <c r="D4" t="n">
-        <v>1.465079412634823</v>
+        <v>1.465079412659581</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.04823555661337402</v>
+        <v>-0.04823555661337418</v>
       </c>
       <c r="F4" t="n">
-        <v>1.626888853455879</v>
+        <v>1.626888853455884</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.04738024804784897</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.59804100615785</v>
       </c>
     </row>
     <row r="5">
@@ -535,16 +563,22 @@
         <v>-0.02371916508538899</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03804969791563712</v>
+        <v>-0.0380496979156479</v>
       </c>
       <c r="D5" t="n">
-        <v>1.604175264123261</v>
+        <v>1.604175264123715</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04099022879577454</v>
+        <v>-0.04099022879581835</v>
       </c>
       <c r="F5" t="n">
-        <v>1.728148046029855</v>
+        <v>1.728148046031701</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.03995984336625919</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.684706996321488</v>
       </c>
     </row>
     <row r="6">
@@ -555,16 +589,22 @@
         <v>-0.01778937381404175</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03040127312476254</v>
+        <v>-0.03040127312475882</v>
       </c>
       <c r="D6" t="n">
-        <v>1.708956899919984</v>
+        <v>1.708956899919776</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03169206658679503</v>
+        <v>-0.0316920665873715</v>
       </c>
       <c r="F6" t="n">
-        <v>1.781516703065705</v>
+        <v>1.78151670309811</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.03095841195845179</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.740275530891103</v>
       </c>
     </row>
     <row r="7">
@@ -575,16 +615,22 @@
         <v>-0.0118595825426945</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.02090461935008493</v>
+        <v>-0.02090461935016276</v>
       </c>
       <c r="D7" t="n">
-        <v>1.762677503599162</v>
+        <v>1.762677503605724</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02074197663109431</v>
+        <v>-0.0207419766314839</v>
       </c>
       <c r="F7" t="n">
-        <v>1.748963469533872</v>
+        <v>1.748963469566723</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.02087145721297498</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.759881272198051</v>
       </c>
     </row>
     <row r="8">
@@ -595,16 +641,22 @@
         <v>-0.005929791271347249</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.01075495355924333</v>
+        <v>-0.01075495355924334</v>
       </c>
       <c r="D8" t="n">
-        <v>1.813715368230795</v>
+        <v>1.813715368230796</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.009228868095887027</v>
+        <v>-0.00922886809589011</v>
       </c>
       <c r="F8" t="n">
-        <v>1.556356315690388</v>
+        <v>1.556356315690908</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.01066961243274245</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.799323440657687</v>
       </c>
     </row>
     <row r="9">
@@ -626,6 +678,14 @@
         <v>0</v>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>0.00189762117836534</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -641,10 +701,16 @@
         <v>1.862499376642283</v>
       </c>
       <c r="E10" t="n">
-        <v>0.007826645288353052</v>
+        <v>0.007826645288378488</v>
       </c>
       <c r="F10" t="n">
-        <v>1.319885461427859</v>
+        <v>1.319885461432148</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01086827163569689</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.832825328643924</v>
       </c>
     </row>
     <row r="11">
@@ -655,16 +721,22 @@
         <v>0.0118595825426945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02180518822131693</v>
+        <v>0.02180518822150435</v>
       </c>
       <c r="D11" t="n">
-        <v>1.838613470821443</v>
+        <v>1.838613470837247</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01951445398622121</v>
+        <v>0.01951445398624508</v>
       </c>
       <c r="F11" t="n">
-        <v>1.645458760118173</v>
+        <v>1.645458760120185</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.02131369720987414</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.797170948736587</v>
       </c>
     </row>
     <row r="12">
@@ -675,16 +747,22 @@
         <v>0.01778937381404175</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03465495901197779</v>
+        <v>0.03465495901198001</v>
       </c>
       <c r="D12" t="n">
-        <v>1.948070762593311</v>
+        <v>1.948070762593436</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03214110758255954</v>
+        <v>0.03214110758361815</v>
       </c>
       <c r="F12" t="n">
-        <v>1.806758794240947</v>
+        <v>1.806758794300455</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03349427590133479</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.882824896000366</v>
       </c>
     </row>
     <row r="13">
@@ -695,16 +773,22 @@
         <v>0.02371916508538899</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05009864291379855</v>
+        <v>0.05009864291315611</v>
       </c>
       <c r="D13" t="n">
-        <v>2.112158785245747</v>
+        <v>2.112158785218661</v>
       </c>
       <c r="E13" t="n">
-        <v>0.04666929466317091</v>
+        <v>0.04666929466325601</v>
       </c>
       <c r="F13" t="n">
-        <v>1.967577462999286</v>
+        <v>1.967577463002873</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0475505284161707</v>
+      </c>
+      <c r="H13" t="n">
+        <v>2.004730278025757</v>
       </c>
     </row>
     <row r="14">
@@ -715,16 +799,22 @@
         <v>0.02964895635673625</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06583027296312191</v>
+        <v>0.06583027296312025</v>
       </c>
       <c r="D14" t="n">
-        <v>2.220323446500176</v>
+        <v>2.22032344650012</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05773198680554371</v>
+        <v>0.05773198680584656</v>
       </c>
       <c r="F14" t="n">
-        <v>1.947184450977378</v>
+        <v>1.947184450987592</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.05828655577848241</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.965888953296655</v>
       </c>
     </row>
     <row r="15">
@@ -735,16 +825,22 @@
         <v>0.0355787476280835</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07194730233932226</v>
+        <v>0.07195262919265723</v>
       </c>
       <c r="D15" t="n">
-        <v>2.022198844417217</v>
+        <v>2.022348564508285</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0673720860508545</v>
+        <v>0.06737208605019895</v>
       </c>
       <c r="F15" t="n">
-        <v>1.89360476526935</v>
+        <v>1.893604765250925</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0675194435035962</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.89774649207441</v>
       </c>
     </row>
     <row r="16">
@@ -755,16 +851,22 @@
         <v>0.04150853889943074</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06330037389072526</v>
+        <v>0.06330015894897827</v>
       </c>
       <c r="D16" t="n">
-        <v>1.52499643613313</v>
+        <v>1.524991257879385</v>
       </c>
       <c r="E16" t="n">
-        <v>0.07667927612680414</v>
+        <v>0.07667927612663729</v>
       </c>
       <c r="F16" t="n">
-        <v>1.84731330371775</v>
+        <v>1.84731330371373</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.07601723344308986</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.83136374969181</v>
       </c>
     </row>
     <row r="17">
@@ -775,16 +877,22 @@
         <v>0.0355787476280835</v>
       </c>
       <c r="C17" t="n">
-        <v>0.06803923851966304</v>
+        <v>0.06803923851921914</v>
       </c>
       <c r="D17" t="n">
-        <v>1.912356197325995</v>
+        <v>1.912356197313519</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06551718319072619</v>
+        <v>0.06551718319072625</v>
       </c>
       <c r="F17" t="n">
-        <v>1.841469628880677</v>
+        <v>1.841469628880679</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.06554373918252115</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.842216029290061</v>
       </c>
     </row>
     <row r="18">
@@ -795,16 +903,22 @@
         <v>0.02964895635673625</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05061418956834238</v>
+        <v>0.05061418956834742</v>
       </c>
       <c r="D18" t="n">
-        <v>1.707115385761051</v>
+        <v>1.707115385761222</v>
       </c>
       <c r="E18" t="n">
-        <v>0.05090443415028759</v>
+        <v>0.05090443415029097</v>
       </c>
       <c r="F18" t="n">
-        <v>1.7169047550209</v>
+        <v>1.716904755021013</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.05086575168873881</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.715600072957782</v>
       </c>
     </row>
     <row r="19">
@@ -815,16 +929,22 @@
         <v>0.02371916508538899</v>
       </c>
       <c r="C19" t="n">
-        <v>0.04264331277256406</v>
+        <v>0.04264331277361325</v>
       </c>
       <c r="D19" t="n">
-        <v>1.797842066491301</v>
+        <v>1.797842066535534</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04137067550307535</v>
+        <v>0.04137067550314479</v>
       </c>
       <c r="F19" t="n">
-        <v>1.744187679209657</v>
+        <v>1.744187679212584</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.04178425008725417</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.761623983678636</v>
       </c>
     </row>
     <row r="20">
@@ -835,16 +955,22 @@
         <v>0.01778937381404175</v>
       </c>
       <c r="C20" t="n">
-        <v>0.03080795748010916</v>
+        <v>0.03080795748010023</v>
       </c>
       <c r="D20" t="n">
-        <v>1.731817983148536</v>
+        <v>1.731817983148034</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02861437972659049</v>
+        <v>0.0286143797265959</v>
       </c>
       <c r="F20" t="n">
-        <v>1.608509665697407</v>
+        <v>1.608509665697711</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02989296184593707</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.680383028566275</v>
       </c>
     </row>
     <row r="21">
@@ -855,16 +981,22 @@
         <v>0.0118595825426945</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02227324667010474</v>
+        <v>0.02227324667039247</v>
       </c>
       <c r="D21" t="n">
-        <v>1.878080159223232</v>
+        <v>1.878080159247493</v>
       </c>
       <c r="E21" t="n">
-        <v>0.02001241413721923</v>
+        <v>0.02001241413729082</v>
       </c>
       <c r="F21" t="n">
-        <v>1.687446760050325</v>
+        <v>1.687446760056362</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02177769039350181</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.836294853980073</v>
       </c>
     </row>
     <row r="22">
@@ -875,16 +1007,22 @@
         <v>0.005929791271347249</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01268297276863595</v>
+        <v>0.01268297276863602</v>
       </c>
       <c r="D22" t="n">
-        <v>2.138856527702766</v>
+        <v>2.138856527702778</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00907729909624033</v>
+        <v>0.009077299096242036</v>
       </c>
       <c r="F22" t="n">
-        <v>1.530795719589969</v>
+        <v>1.530795719590257</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01245389048254824</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.100224090976934</v>
       </c>
     </row>
     <row r="23">
@@ -906,6 +1044,14 @@
         <v>0</v>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="n">
+        <v>0.003075166413247935</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -921,10 +1067,16 @@
         <v>1.511226613384103</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.006162350849092291</v>
+        <v>-0.006162350849092534</v>
       </c>
       <c r="F24" t="n">
-        <v>1.039218847190924</v>
+        <v>1.039218847190965</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.008837582393123869</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.490369894776409</v>
       </c>
     </row>
     <row r="25">
@@ -935,16 +1087,22 @@
         <v>-0.0118595825426945</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0241386114422474</v>
+        <v>-0.02413861144223501</v>
       </c>
       <c r="D25" t="n">
-        <v>2.035367716810301</v>
+        <v>2.035367716809256</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.02339979357209694</v>
+        <v>-0.02339979357209691</v>
       </c>
       <c r="F25" t="n">
-        <v>1.973070593999214</v>
+        <v>1.973070593999211</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.02397561681564517</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.021624009895201</v>
       </c>
     </row>
     <row r="26">
@@ -955,16 +1113,22 @@
         <v>-0.01778937381404175</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.03815925905674744</v>
+        <v>-0.03815925905679345</v>
       </c>
       <c r="D26" t="n">
-        <v>2.145059149109962</v>
+        <v>2.145059149112549</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.03789133331772563</v>
+        <v>-0.03789133331772523</v>
       </c>
       <c r="F26" t="n">
-        <v>2.12999815023375</v>
+        <v>2.129998150233727</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.03803217776809312</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.137915486270408</v>
       </c>
     </row>
     <row r="27">
@@ -975,16 +1139,22 @@
         <v>-0.02371916508538899</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.04926655324922011</v>
+        <v>-0.04926655324895907</v>
       </c>
       <c r="D27" t="n">
-        <v>2.07707788498712</v>
+        <v>2.077077884976115</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.04978289167950203</v>
+        <v>-0.04978289167972544</v>
       </c>
       <c r="F27" t="n">
-        <v>2.098846713207805</v>
+        <v>2.098846713217224</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.04968385941675274</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.094671513010296</v>
       </c>
     </row>
     <row r="28">
@@ -995,16 +1165,22 @@
         <v>-0.02964895635673625</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.05891867746167034</v>
+        <v>-0.05891867746166635</v>
       </c>
       <c r="D28" t="n">
-        <v>1.987209153427217</v>
+        <v>1.987209153427083</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.05928676938654161</v>
+        <v>-0.05928676938707721</v>
       </c>
       <c r="F28" t="n">
-        <v>1.999624157869275</v>
+        <v>1.99962415788734</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.05928290153830798</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.999493703084051</v>
       </c>
     </row>
     <row r="29">
@@ -1015,16 +1191,22 @@
         <v>-0.0355787476280835</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.07194539634984676</v>
+        <v>-0.07194501114367181</v>
       </c>
       <c r="D29" t="n">
-        <v>2.022145273406359</v>
+        <v>2.022134446544802</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.06422014217819227</v>
+        <v>-0.06422014217819233</v>
       </c>
       <c r="F29" t="n">
-        <v>1.805014129488391</v>
+        <v>1.805014129488392</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.06429713642610464</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.807178181149714</v>
       </c>
     </row>
     <row r="30">
@@ -1035,16 +1217,22 @@
         <v>-0.04150853889943074</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.06329232913539613</v>
+        <v>-0.06330477637277396</v>
       </c>
       <c r="D30" t="n">
-        <v>1.524802626484743</v>
+        <v>1.525102498214943</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.07414879539577549</v>
+        <v>-0.07414879539576057</v>
       </c>
       <c r="F30" t="n">
-        <v>1.786350407934797</v>
+        <v>1.786350407934437</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.0738244226154697</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.778535804267544</v>
       </c>
     </row>
   </sheetData>
@@ -1058,7 +1246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1285,16 @@
           <t>KRy</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>kixy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>KRxy</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1106,16 +1304,22 @@
         <v>-0.04197551721206736</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.062646532874485</v>
+        <v>-0.06296327581810104</v>
       </c>
       <c r="D2" t="n">
-        <v>1.49245410266142</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06614789442455442</v>
+        <v>-0.06614789442455055</v>
       </c>
       <c r="F2" t="n">
-        <v>1.575868478055056</v>
+        <v>1.575868478054964</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.06596764594714581</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.571574344489103</v>
       </c>
     </row>
     <row r="3">
@@ -1126,16 +1330,22 @@
         <v>-0.03777796549086063</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.06870315535665415</v>
+        <v>-0.06870453954535047</v>
       </c>
       <c r="D3" t="n">
-        <v>1.818603899494668</v>
+        <v>1.818640539601629</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05985279515471277</v>
+        <v>-0.05985279515426775</v>
       </c>
       <c r="F3" t="n">
-        <v>1.584330822928846</v>
+        <v>1.584330822917066</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.05993178441116188</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.586421704621992</v>
       </c>
     </row>
     <row r="4">
@@ -1146,16 +1356,22 @@
         <v>-0.03358041376965389</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.04995689982134741</v>
+        <v>-0.04995689982135078</v>
       </c>
       <c r="D4" t="n">
-        <v>1.487679698172531</v>
+        <v>1.487679698172631</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05176798005000042</v>
+        <v>-0.05176798004992605</v>
       </c>
       <c r="F4" t="n">
-        <v>1.541612334055942</v>
+        <v>1.541612334053727</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.05160591751231826</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.536786230994978</v>
       </c>
     </row>
     <row r="5">
@@ -1166,16 +1382,22 @@
         <v>-0.02938286204844716</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04173174403034141</v>
+        <v>-0.04173174403041877</v>
       </c>
       <c r="D5" t="n">
-        <v>1.420274987560202</v>
+        <v>1.420274987562835</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04475452106418797</v>
+        <v>-0.0447545210641738</v>
       </c>
       <c r="F5" t="n">
-        <v>1.523150501486059</v>
+        <v>1.523150501485576</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.04411583524566435</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.501413823232234</v>
       </c>
     </row>
     <row r="6">
@@ -1186,16 +1408,22 @@
         <v>-0.02518531032724042</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03780588107153755</v>
+        <v>-0.0378058810698958</v>
       </c>
       <c r="D6" t="n">
-        <v>1.501108407254634</v>
+        <v>1.501108407189447</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04038885292190335</v>
+        <v>-0.04038885292190403</v>
       </c>
       <c r="F6" t="n">
-        <v>1.603667074064948</v>
+        <v>1.603667074064975</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.03953654189867949</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.569825481003376</v>
       </c>
     </row>
     <row r="7">
@@ -1206,16 +1434,22 @@
         <v>-0.02098775860603368</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0333405422163638</v>
+        <v>-0.03334054221636392</v>
       </c>
       <c r="D7" t="n">
-        <v>1.588570882780159</v>
+        <v>1.588570882780165</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03500207299120527</v>
+        <v>-0.03500207299121844</v>
       </c>
       <c r="F7" t="n">
-        <v>1.667737543976834</v>
+        <v>1.667737543977462</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.03422259561389992</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.630597924070911</v>
       </c>
     </row>
     <row r="8">
@@ -1226,16 +1460,22 @@
         <v>-0.01679020688482695</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02768135421559714</v>
+        <v>-0.02768135421559705</v>
       </c>
       <c r="D8" t="n">
-        <v>1.648660698791768</v>
+        <v>1.648660698791762</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02843486603246094</v>
+        <v>-0.02843486603251833</v>
       </c>
       <c r="F8" t="n">
-        <v>1.69353875312621</v>
+        <v>1.693538753129629</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.02796580811580788</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.665602354255691</v>
       </c>
     </row>
     <row r="9">
@@ -1246,16 +1486,22 @@
         <v>-0.01259265516362021</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02159942564000214</v>
+        <v>-0.02159942564011439</v>
       </c>
       <c r="D9" t="n">
-        <v>1.715239983891738</v>
+        <v>1.715239983900652</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02159794414173244</v>
+        <v>-0.02159794414188292</v>
       </c>
       <c r="F9" t="n">
-        <v>1.71512233608431</v>
+        <v>1.71512233609626</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.02159905517654823</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.715210564881284</v>
       </c>
     </row>
     <row r="10">
@@ -1266,16 +1512,22 @@
         <v>-0.008395103442413473</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01529367332025879</v>
+        <v>-0.01529367332025949</v>
       </c>
       <c r="D10" t="n">
-        <v>1.821737328809146</v>
+        <v>1.82173732880923</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01479473052463336</v>
+        <v>-0.01479473052516989</v>
       </c>
       <c r="F10" t="n">
-        <v>1.76230473229048</v>
+        <v>1.76230473235439</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.015246349976622</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.816100311473815</v>
       </c>
     </row>
     <row r="11">
@@ -1286,16 +1538,22 @@
         <v>-0.004197551721206737</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.007276755937316904</v>
+        <v>-0.007276755937315866</v>
       </c>
       <c r="D11" t="n">
-        <v>1.733571477047801</v>
+        <v>1.733571477047554</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.00540183087759132</v>
+        <v>-0.005401830877666663</v>
       </c>
       <c r="F11" t="n">
-        <v>1.286900373448733</v>
+        <v>1.286900373466682</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.007227715528009665</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.721888378764705</v>
       </c>
     </row>
     <row r="12">
@@ -1317,6 +1575,14 @@
         <v>0</v>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>0.0002854886642159259</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1326,16 +1592,22 @@
         <v>0.004197551721206737</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008375353915259596</v>
+        <v>0.008375353915259594</v>
       </c>
       <c r="D13" t="n">
-        <v>1.995294988968427</v>
+        <v>1.995294988968426</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00543584340319604</v>
+        <v>0.005435843403250747</v>
       </c>
       <c r="F13" t="n">
-        <v>1.295003317227337</v>
+        <v>1.29500331724037</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.008289054973974707</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.974735637466242</v>
       </c>
     </row>
     <row r="14">
@@ -1346,16 +1618,22 @@
         <v>0.008395103442413473</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01431952533479929</v>
+        <v>0.01431952533479947</v>
       </c>
       <c r="D14" t="n">
-        <v>1.705699689470727</v>
+        <v>1.705699689470748</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01231962413950539</v>
+        <v>0.01231962413950583</v>
       </c>
       <c r="F14" t="n">
-        <v>1.467477348434395</v>
+        <v>1.467477348434448</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01411372795811351</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.681185711995946</v>
       </c>
     </row>
     <row r="15">
@@ -1366,16 +1644,22 @@
         <v>0.01259265516362021</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02132372315922913</v>
+        <v>0.02132372315931358</v>
       </c>
       <c r="D15" t="n">
-        <v>1.69334607214789</v>
+        <v>1.693346072154596</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01960724736553503</v>
+        <v>0.01960724736553843</v>
       </c>
       <c r="F15" t="n">
-        <v>1.557038377591706</v>
+        <v>1.557038377591976</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.02094161536274813</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.663002368495551</v>
       </c>
     </row>
     <row r="16">
@@ -1386,16 +1670,22 @@
         <v>0.01679020688482695</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0293581500647961</v>
+        <v>0.02935815006479034</v>
       </c>
       <c r="D16" t="n">
-        <v>1.748528190639903</v>
+        <v>1.74852819063956</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02743818649455957</v>
+        <v>0.02743818649457095</v>
       </c>
       <c r="F16" t="n">
-        <v>1.634177987369235</v>
+        <v>1.634177987369913</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0286220671348155</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.704688175145764</v>
       </c>
     </row>
     <row r="17">
@@ -1406,16 +1696,22 @@
         <v>0.02098775860603368</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03825391586913543</v>
+        <v>0.0382539158691689</v>
       </c>
       <c r="D17" t="n">
-        <v>1.822677522988947</v>
+        <v>1.822677522990542</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03662301941478138</v>
+        <v>0.03662301941491341</v>
       </c>
       <c r="F17" t="n">
-        <v>1.744970489809845</v>
+        <v>1.744970489816136</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03732365457929918</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.778353528831286</v>
       </c>
     </row>
     <row r="18">
@@ -1426,16 +1722,22 @@
         <v>0.02518531032724042</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04750944145270502</v>
+        <v>0.04750944145269838</v>
       </c>
       <c r="D18" t="n">
-        <v>1.886394919713133</v>
+        <v>1.886394919712869</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04598739325302449</v>
+        <v>0.04598739325335871</v>
       </c>
       <c r="F18" t="n">
-        <v>1.825960953249981</v>
+        <v>1.825960953263251</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.04636356319421532</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.840897038464065</v>
       </c>
     </row>
     <row r="19">
@@ -1446,16 +1748,22 @@
         <v>0.02938286204844716</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0572885621735936</v>
+        <v>0.0572885621735934</v>
       </c>
       <c r="D19" t="n">
-        <v>1.949727091905985</v>
+        <v>1.949727091905978</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05436496147989688</v>
+        <v>0.05436496147998358</v>
       </c>
       <c r="F19" t="n">
-        <v>1.850226890432206</v>
+        <v>1.850226890435157</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0546737848838488</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.860737214560698</v>
       </c>
     </row>
     <row r="20">
@@ -1466,16 +1774,22 @@
         <v>0.03358041376965389</v>
       </c>
       <c r="C20" t="n">
-        <v>0.074954946183186</v>
+        <v>0.07492321080674108</v>
       </c>
       <c r="D20" t="n">
-        <v>2.232103115147487</v>
+        <v>2.231158059000692</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05947735084229912</v>
+        <v>0.05947735084229984</v>
       </c>
       <c r="F20" t="n">
-        <v>1.771191720575161</v>
+        <v>1.771191720575183</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.05978201710614964</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.780264457615878</v>
       </c>
     </row>
     <row r="21">
@@ -1486,16 +1800,22 @@
         <v>0.03777796549086063</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06870893126552544</v>
+        <v>0.06869606392179085</v>
       </c>
       <c r="D21" t="n">
-        <v>1.818756790440389</v>
+        <v>1.81841618597513</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06429031833110677</v>
+        <v>0.06429031833100712</v>
       </c>
       <c r="F21" t="n">
-        <v>1.70179408805538</v>
+        <v>1.701794088052742</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.06444371903146325</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.705854674652972</v>
       </c>
     </row>
     <row r="22">
@@ -1506,16 +1826,22 @@
         <v>0.04197551721206736</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06263492069381671</v>
+        <v>0.06296327581810104</v>
       </c>
       <c r="D22" t="n">
-        <v>1.492177460908333</v>
+        <v>1.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06877576964896412</v>
+        <v>0.06877576964880655</v>
       </c>
       <c r="F22" t="n">
-        <v>1.638473429678005</v>
+        <v>1.638473429674251</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.06844770568582577</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.630657827037996</v>
       </c>
     </row>
     <row r="23">
@@ -1526,16 +1852,22 @@
         <v>0.03777796549086063</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06870669274795227</v>
+        <v>0.06870706572802794</v>
       </c>
       <c r="D23" t="n">
-        <v>1.818697535857881</v>
+        <v>1.818707408810826</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06351584819459716</v>
+        <v>0.06351584819444693</v>
       </c>
       <c r="F23" t="n">
-        <v>1.681293509836127</v>
+        <v>1.681293509832151</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.06357243429778314</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.682791369830723</v>
       </c>
     </row>
     <row r="24">
@@ -1546,16 +1878,22 @@
         <v>0.03358041376965389</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0540446035002827</v>
+        <v>0.05404460350171233</v>
       </c>
       <c r="D24" t="n">
-        <v>1.609408504344338</v>
+        <v>1.609408504386912</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05475671816274623</v>
+        <v>0.05475671816274625</v>
       </c>
       <c r="F24" t="n">
         <v>1.630614754730302</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.05471617441665724</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.62940739182027</v>
       </c>
     </row>
     <row r="25">
@@ -1566,16 +1904,22 @@
         <v>0.02938286204844716</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04571900211694035</v>
+        <v>0.04571900211693734</v>
       </c>
       <c r="D25" t="n">
-        <v>1.555975113709406</v>
+        <v>1.555975113709303</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04654884041479419</v>
+        <v>0.04654884041479426</v>
       </c>
       <c r="F25" t="n">
-        <v>1.584217369228476</v>
+        <v>1.584217369228478</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.04639497797872965</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.578980900575053</v>
       </c>
     </row>
     <row r="26">
@@ -1586,16 +1930,22 @@
         <v>0.02518531032724042</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03810924233519531</v>
+        <v>0.03810924233518057</v>
       </c>
       <c r="D26" t="n">
-        <v>1.513153574048932</v>
+        <v>1.513153574048347</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03779897430720867</v>
+        <v>0.0377989743070169</v>
       </c>
       <c r="F26" t="n">
-        <v>1.500834169445406</v>
+        <v>1.500834169437791</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03790662687036928</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.505108588214198</v>
       </c>
     </row>
     <row r="27">
@@ -1606,16 +1956,22 @@
         <v>0.02098775860603368</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03159466281248017</v>
+        <v>0.03159466281248016</v>
       </c>
       <c r="D27" t="n">
-        <v>1.505385277463462</v>
+        <v>1.505385277463461</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03066646610403451</v>
+        <v>0.03066646610403462</v>
       </c>
       <c r="F27" t="n">
-        <v>1.461159654047972</v>
+        <v>1.461159654047977</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.03113663705349976</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.48356180562075</v>
       </c>
     </row>
     <row r="28">
@@ -1632,10 +1988,16 @@
         <v>1.603789676556479</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02592032058653226</v>
+        <v>0.02592032058653395</v>
       </c>
       <c r="F28" t="n">
-        <v>1.543776128807326</v>
+        <v>1.543776128807427</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02656649162213644</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.582261124259533</v>
       </c>
     </row>
     <row r="29">
@@ -1646,16 +2008,22 @@
         <v>0.01259265516362021</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02171212463550322</v>
+        <v>0.021712124635629</v>
       </c>
       <c r="D29" t="n">
-        <v>1.7241895655357</v>
+        <v>1.724189565545689</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02049059009268369</v>
+        <v>0.02049059009269861</v>
       </c>
       <c r="F29" t="n">
-        <v>1.627185833840695</v>
+        <v>1.627185833841881</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.02143275961944079</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.702004806846404</v>
       </c>
     </row>
     <row r="30">
@@ -1666,16 +2034,22 @@
         <v>0.008395103442413473</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0159815181490268</v>
+        <v>0.01598151814902849</v>
       </c>
       <c r="D30" t="n">
-        <v>1.903671379233457</v>
+        <v>1.903671379233658</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01486752116932036</v>
+        <v>0.01486752116998922</v>
       </c>
       <c r="F30" t="n">
-        <v>1.770975339530321</v>
+        <v>1.770975339609993</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01584899851797732</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.887886031029173</v>
       </c>
     </row>
     <row r="31">
@@ -1692,10 +2066,16 @@
         <v>2.32111534815207</v>
       </c>
       <c r="E31" t="n">
-        <v>0.007403685763725027</v>
+        <v>0.007403685764075604</v>
       </c>
       <c r="F31" t="n">
-        <v>1.763810491320539</v>
+        <v>1.763810491404058</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.009659601442674848</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.301246556146746</v>
       </c>
     </row>
     <row r="32">
@@ -1717,6 +2097,14 @@
         <v>0</v>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>0.002163789600927164</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1726,16 +2114,22 @@
         <v>-0.004197551721206737</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.006406681726177644</v>
+        <v>-0.00640668172617764</v>
       </c>
       <c r="D33" t="n">
-        <v>1.526290121408156</v>
+        <v>1.526290121408155</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.003620059376906907</v>
+        <v>-0.003620059376916738</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8624216251148876</v>
+        <v>0.8624216251172296</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.00634533599376054</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.511675475421264</v>
       </c>
     </row>
     <row r="34">
@@ -1746,16 +2140,22 @@
         <v>-0.008395103442413473</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.01641458105450909</v>
+        <v>-0.01641458105451193</v>
       </c>
       <c r="D34" t="n">
-        <v>1.955256557242627</v>
+        <v>1.955256557242965</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.0152073427645439</v>
+        <v>-0.01520734276482351</v>
       </c>
       <c r="F34" t="n">
-        <v>1.811453887240251</v>
+        <v>1.811453887273557</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.01626824318418358</v>
+      </c>
+      <c r="H34" t="n">
+        <v>1.937825221067996</v>
       </c>
     </row>
     <row r="35">
@@ -1766,16 +2166,22 @@
         <v>-0.01259265516362021</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.02464245958770728</v>
+        <v>-0.02464245958769905</v>
       </c>
       <c r="D35" t="n">
-        <v>1.956891479002664</v>
+        <v>1.95689147900201</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.02379191610332191</v>
+        <v>-0.02379191610332188</v>
       </c>
       <c r="F35" t="n">
-        <v>1.889348655560427</v>
+        <v>1.889348655560424</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.02442031050629189</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.939250316076423</v>
       </c>
     </row>
     <row r="36">
@@ -1786,16 +2192,22 @@
         <v>-0.01679020688482695</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.03333764896461466</v>
+        <v>-0.03333764896461541</v>
       </c>
       <c r="D36" t="n">
-        <v>1.985541285661071</v>
+        <v>1.985541285661116</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.03290099833444077</v>
+        <v>-0.03290099833444076</v>
       </c>
       <c r="F36" t="n">
         <v>1.959535017056454</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.03315447357953024</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.974631629434622</v>
       </c>
     </row>
     <row r="37">
@@ -1806,16 +2218,22 @@
         <v>-0.02098775860603368</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.04322668815765347</v>
+        <v>-0.04322668815765131</v>
       </c>
       <c r="D37" t="n">
-        <v>2.059614319426488</v>
+        <v>2.059614319426385</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.0433916769937785</v>
+        <v>-0.04339167699439735</v>
       </c>
       <c r="F37" t="n">
-        <v>2.067475513145268</v>
+        <v>2.067475513174755</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.04334480603118528</v>
+      </c>
+      <c r="H37" t="n">
+        <v>2.065242260730227</v>
       </c>
     </row>
     <row r="38">
@@ -1826,16 +2244,22 @@
         <v>-0.02518531032724042</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.05079681389132316</v>
+        <v>-0.05079681389081755</v>
       </c>
       <c r="D38" t="n">
-        <v>2.016922294436903</v>
+        <v>2.016922294416827</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.05142122603801833</v>
+        <v>-0.05142122603808492</v>
       </c>
       <c r="F38" t="n">
-        <v>2.041715006481423</v>
+        <v>2.041715006484067</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.05131920965639045</v>
+      </c>
+      <c r="H38" t="n">
+        <v>2.037664376161513</v>
       </c>
     </row>
     <row r="39">
@@ -1846,16 +2270,22 @@
         <v>-0.02938286204844716</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.05668301347646791</v>
+        <v>-0.05668301347646786</v>
       </c>
       <c r="D39" t="n">
-        <v>1.929118184028759</v>
+        <v>1.929118184028757</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.05621417707067212</v>
+        <v>-0.05621417707090427</v>
       </c>
       <c r="F39" t="n">
-        <v>1.91316206630875</v>
+        <v>1.913162066316651</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.05627229795780869</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.915140120285954</v>
       </c>
     </row>
     <row r="40">
@@ -1866,16 +2296,22 @@
         <v>-0.03358041376965389</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.06666063925771119</v>
+        <v>-0.06666063925890121</v>
       </c>
       <c r="D40" t="n">
-        <v>1.985104761215045</v>
+        <v>1.985104761250483</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.06042799096684858</v>
+        <v>-0.06042799096684978</v>
       </c>
       <c r="F40" t="n">
-        <v>1.799501083618464</v>
+        <v>1.7995010836185</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.06059339735380057</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.804426764048926</v>
       </c>
     </row>
     <row r="41">
@@ -1886,16 +2322,22 @@
         <v>-0.03777796549086063</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.06870651254892488</v>
+        <v>-0.06869444859069325</v>
       </c>
       <c r="D41" t="n">
-        <v>1.818692765907327</v>
+        <v>1.818373427423243</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.06376133101409322</v>
+        <v>-0.0637613310139593</v>
       </c>
       <c r="F41" t="n">
-        <v>1.687791552181882</v>
+        <v>1.687791552178337</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.06391017325384851</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.69173147424548</v>
       </c>
     </row>
     <row r="42">
@@ -1906,16 +2348,22 @@
         <v>-0.04197551721206736</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.06263528049111548</v>
+        <v>-0.06296327581810104</v>
       </c>
       <c r="D42" t="n">
-        <v>1.492186032507272</v>
+        <v>1.5</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.06787112318315175</v>
+        <v>-0.06787112318310698</v>
       </c>
       <c r="F42" t="n">
-        <v>1.616921665080514</v>
+        <v>1.616921665079448</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.06760469651605967</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.610574473079376</v>
       </c>
     </row>
   </sheetData>
@@ -1929,7 +2377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1968,6 +2416,16 @@
           <t>KRy</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>kixy</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>KRxy</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1977,16 +2435,22 @@
         <v>-0.04192995618990437</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06260250675860221</v>
+        <v>-0.06289493428485657</v>
       </c>
       <c r="D2" t="n">
-        <v>1.493025808924533</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.06623773449181954</v>
+        <v>-0.06623773449181515</v>
       </c>
       <c r="F2" t="n">
-        <v>1.579723436671938</v>
+        <v>1.579723436671833</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.06606817891624171</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.57567965530451</v>
       </c>
     </row>
     <row r="3">
@@ -1997,16 +2461,22 @@
         <v>-0.03773696057091395</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.06876465386627398</v>
+        <v>-0.06876602958803017</v>
       </c>
       <c r="D3" t="n">
-        <v>1.822209654035436</v>
+        <v>1.822246109588172</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05893869040370552</v>
+        <v>-0.05893869040331134</v>
       </c>
       <c r="F3" t="n">
-        <v>1.561829291814587</v>
+        <v>1.561829291804142</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.05904964341042811</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.564769459889705</v>
       </c>
     </row>
     <row r="4">
@@ -2017,16 +2487,22 @@
         <v>-0.03354396495192353</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.05032155837977425</v>
+        <v>-0.05032155837971218</v>
       </c>
       <c r="D4" t="n">
-        <v>1.500167271576184</v>
+        <v>1.500167271574333</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.05267631011980694</v>
+        <v>-0.05267631011980693</v>
       </c>
       <c r="F4" t="n">
         <v>1.570366240106219</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.05247821610613271</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.564460736270935</v>
       </c>
     </row>
     <row r="5">
@@ -2037,16 +2513,22 @@
         <v>-0.02935096933293307</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.04332965101256197</v>
+        <v>-0.04332965101327088</v>
       </c>
       <c r="D5" t="n">
-        <v>1.476259626081385</v>
+        <v>1.476259626105538</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04613678126145494</v>
+        <v>-0.04613678126145501</v>
       </c>
       <c r="F5" t="n">
-        <v>1.571899746755125</v>
+        <v>1.571899746755128</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.04558386476659134</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.553061646773085</v>
       </c>
     </row>
     <row r="6">
@@ -2057,16 +2539,22 @@
         <v>-0.02515797371394265</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03883492048867406</v>
+        <v>-0.03883492048869368</v>
       </c>
       <c r="D6" t="n">
-        <v>1.543642621231915</v>
+        <v>1.543642621232695</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.04087309740988604</v>
+        <v>-0.04087309740988719</v>
       </c>
       <c r="F6" t="n">
-        <v>1.624657767538488</v>
+        <v>1.624657767538534</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.04021623629919662</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.598548307446105</v>
       </c>
     </row>
     <row r="7">
@@ -2077,16 +2565,22 @@
         <v>-0.02096497809495219</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.03434482424338339</v>
+        <v>-0.0343448242433815</v>
       </c>
       <c r="D7" t="n">
-        <v>1.638199863020736</v>
+        <v>1.638199863020645</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.03591772510119687</v>
+        <v>-0.03591772510124973</v>
       </c>
       <c r="F7" t="n">
-        <v>1.713225024062625</v>
+        <v>1.713225024065146</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.03519876366104826</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.678931573485555</v>
       </c>
     </row>
     <row r="8">
@@ -2097,16 +2591,22 @@
         <v>-0.01677198247596176</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02924570432753551</v>
+        <v>-0.02924570432753071</v>
       </c>
       <c r="D8" t="n">
-        <v>1.743723758920661</v>
+        <v>1.743723758920375</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02995878218424489</v>
+        <v>-0.02995878218497561</v>
       </c>
       <c r="F8" t="n">
-        <v>1.786239773812246</v>
+        <v>1.786239773855813</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.02952774355846933</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.760539852744874</v>
       </c>
     </row>
     <row r="9">
@@ -2117,16 +2617,22 @@
         <v>-0.0125789868569713</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02347174355875394</v>
+        <v>-0.02347174355875274</v>
       </c>
       <c r="D9" t="n">
-        <v>1.865948651162303</v>
+        <v>1.865948651162208</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02366916271900871</v>
+        <v>-0.0236691627190087</v>
       </c>
       <c r="F9" t="n">
         <v>1.881643012123127</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.02352357691875218</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.870069281908452</v>
       </c>
     </row>
     <row r="10">
@@ -2137,16 +2643,22 @@
         <v>-0.008385991237980882</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.01536667837016806</v>
+        <v>-0.01536667837016884</v>
       </c>
       <c r="D10" t="n">
-        <v>1.832422421403333</v>
+        <v>1.832422421403425</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01503764333968586</v>
+        <v>-0.01503764333990227</v>
       </c>
       <c r="F10" t="n">
-        <v>1.793186149727783</v>
+        <v>1.793186149753589</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.01533298003174696</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.828404012909358</v>
       </c>
     </row>
     <row r="11">
@@ -2157,16 +2669,22 @@
         <v>-0.004192995618990437</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.007601341809351068</v>
+        <v>-0.007601341809346335</v>
       </c>
       <c r="D11" t="n">
-        <v>1.812866623309583</v>
+        <v>1.812866623308454</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.006537546191534115</v>
+        <v>-0.00653754619153674</v>
       </c>
       <c r="F11" t="n">
-        <v>1.559158841455738</v>
+        <v>1.559158841456364</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.007571174761763811</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.805671994378747</v>
       </c>
     </row>
     <row r="12">
@@ -2188,6 +2706,14 @@
         <v>0</v>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>-0.001346808998388344</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2197,16 +2723,22 @@
         <v>0.004192995618990437</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007325542942430014</v>
+        <v>0.007325542942428633</v>
       </c>
       <c r="D13" t="n">
-        <v>1.74709053099221</v>
+        <v>1.747090530991881</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00504918010336861</v>
+        <v>0.005049180103246649</v>
       </c>
       <c r="F13" t="n">
-        <v>1.204193984963981</v>
+        <v>1.204193984934894</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.007266590077692554</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.733030686886851</v>
       </c>
     </row>
     <row r="14">
@@ -2217,16 +2749,22 @@
         <v>0.008385991237980882</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01413958741801103</v>
+        <v>0.01413958741801116</v>
       </c>
       <c r="D14" t="n">
-        <v>1.686096135418269</v>
+        <v>1.686096135418284</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01291453861060224</v>
+        <v>0.0129145386106048</v>
       </c>
       <c r="F14" t="n">
-        <v>1.540013368021561</v>
+        <v>1.540013368021866</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01401508350565551</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.671249481179993</v>
       </c>
     </row>
     <row r="15">
@@ -2237,16 +2775,22 @@
         <v>0.0125789868569713</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02084775524706232</v>
+        <v>0.02084775524711339</v>
       </c>
       <c r="D15" t="n">
-        <v>1.657347724750062</v>
+        <v>1.657347724754122</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01978236481511877</v>
+        <v>0.01978236481512352</v>
       </c>
       <c r="F15" t="n">
-        <v>1.572651680143488</v>
+        <v>1.572651680143866</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.02061451825356093</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.638805929917664</v>
       </c>
     </row>
     <row r="16">
@@ -2257,16 +2801,22 @@
         <v>0.01677198247596176</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02900071901239842</v>
+        <v>0.02900071901239556</v>
       </c>
       <c r="D16" t="n">
-        <v>1.729116939751358</v>
+        <v>1.729116939751188</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0285649426289937</v>
+        <v>0.02856494262906974</v>
       </c>
       <c r="F16" t="n">
-        <v>1.703134538205847</v>
+        <v>1.703134538210381</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.02884465809200632</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.719812081448783</v>
       </c>
     </row>
     <row r="17">
@@ -2277,16 +2827,22 @@
         <v>0.02096497809495219</v>
       </c>
       <c r="C17" t="n">
-        <v>0.03691403932069474</v>
+        <v>0.03691403932019219</v>
       </c>
       <c r="D17" t="n">
-        <v>1.760747812542798</v>
+        <v>1.760747812518827</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03648535540940864</v>
+        <v>0.03648535540952502</v>
       </c>
       <c r="F17" t="n">
-        <v>1.740300192261749</v>
+        <v>1.7403001922673</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03668199062429281</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.749679415745484</v>
       </c>
     </row>
     <row r="18">
@@ -2297,16 +2853,22 @@
         <v>0.02515797371394265</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04415623018137413</v>
+        <v>0.0441562301813741</v>
       </c>
       <c r="D18" t="n">
-        <v>1.755158451290637</v>
+        <v>1.755158451290636</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04315810063952872</v>
+        <v>0.04315810063954853</v>
       </c>
       <c r="F18" t="n">
-        <v>1.715483970619236</v>
+        <v>1.715483970620024</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.04343847513146788</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.726628528409428</v>
       </c>
     </row>
     <row r="19">
@@ -2317,16 +2879,22 @@
         <v>0.02935096933293307</v>
       </c>
       <c r="C19" t="n">
-        <v>0.05214434606540202</v>
+        <v>0.0521443460653987</v>
       </c>
       <c r="D19" t="n">
-        <v>1.776580032976757</v>
+        <v>1.776580032976644</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05020400514204938</v>
+        <v>0.05020400514205259</v>
       </c>
       <c r="F19" t="n">
-        <v>1.710471793029278</v>
+        <v>1.710471793029388</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0504823944515802</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.719956635126757</v>
       </c>
     </row>
     <row r="20">
@@ -2337,16 +2905,22 @@
         <v>0.03354396495192353</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06160090761253165</v>
+        <v>0.06160090761407459</v>
       </c>
       <c r="D20" t="n">
-        <v>1.83642296612283</v>
+        <v>1.836422966168827</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0567947955838213</v>
+        <v>0.05679479558382139</v>
       </c>
       <c r="F20" t="n">
-        <v>1.693144971538747</v>
+        <v>1.69314497153875</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0570155275235137</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.699725348664968</v>
       </c>
     </row>
     <row r="21">
@@ -2357,16 +2931,22 @@
         <v>0.03773696057091395</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06873656199773326</v>
+        <v>0.06876503283282508</v>
       </c>
       <c r="D21" t="n">
-        <v>1.821465241445876</v>
+        <v>1.822219696353242</v>
       </c>
       <c r="E21" t="n">
-        <v>0.06143532763092483</v>
+        <v>0.06143532763063258</v>
       </c>
       <c r="F21" t="n">
-        <v>1.627988229615837</v>
+        <v>1.627988229608092</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.06160958440156851</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.632605898023874</v>
       </c>
     </row>
     <row r="22">
@@ -2377,16 +2957,22 @@
         <v>0.04192995618990437</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06269412798889448</v>
+        <v>0.06289493428485657</v>
       </c>
       <c r="D22" t="n">
-        <v>1.495210910904543</v>
+        <v>1.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0.06597660587291375</v>
+        <v>0.06597660587291045</v>
       </c>
       <c r="F22" t="n">
-        <v>1.573495702549748</v>
+        <v>1.573495702549669</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.06583490221499481</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.570116169852954</v>
       </c>
     </row>
     <row r="23">
@@ -2397,16 +2983,22 @@
         <v>0.03773696057091395</v>
       </c>
       <c r="C23" t="n">
-        <v>0.06299704374996061</v>
+        <v>0.06299704375407995</v>
       </c>
       <c r="D23" t="n">
-        <v>1.669372487791613</v>
+        <v>1.669372487900772</v>
       </c>
       <c r="E23" t="n">
-        <v>0.06042741350471045</v>
+        <v>0.06042741350437521</v>
       </c>
       <c r="F23" t="n">
-        <v>1.601279291986365</v>
+        <v>1.601279291977481</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.06046602376262719</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.602302433684387</v>
       </c>
     </row>
     <row r="24">
@@ -2417,16 +3009,22 @@
         <v>0.03354396495192353</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0500833856082145</v>
+        <v>0.05008338560831852</v>
       </c>
       <c r="D24" t="n">
-        <v>1.493066954964802</v>
+        <v>1.493066954967903</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05162976161286356</v>
+        <v>0.0516297616128073</v>
       </c>
       <c r="F24" t="n">
-        <v>1.53916693172263</v>
+        <v>1.539166931720952</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.05148952054250569</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.534986117958995</v>
       </c>
     </row>
     <row r="25">
@@ -2437,16 +3035,22 @@
         <v>0.02935096933293307</v>
       </c>
       <c r="C25" t="n">
-        <v>0.04198902833924545</v>
+        <v>0.04198902833938762</v>
       </c>
       <c r="D25" t="n">
-        <v>1.430584041806481</v>
+        <v>1.430584041811324</v>
       </c>
       <c r="E25" t="n">
         <v>0.04253099499269635</v>
       </c>
       <c r="F25" t="n">
         <v>1.44904907603766</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.04240899478376866</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.44489247706664</v>
       </c>
     </row>
     <row r="26">
@@ -2457,16 +3061,22 @@
         <v>0.02515797371394265</v>
       </c>
       <c r="C26" t="n">
-        <v>0.03581141852443807</v>
+        <v>0.03581141852443797</v>
       </c>
       <c r="D26" t="n">
-        <v>1.423461958090497</v>
+        <v>1.423461958090493</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03574166058861777</v>
+        <v>0.03574166058861779</v>
       </c>
       <c r="F26" t="n">
-        <v>1.420689161814713</v>
+        <v>1.420689161814714</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0357667649611378</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.421687031230012</v>
       </c>
     </row>
     <row r="27">
@@ -2477,16 +3087,22 @@
         <v>0.02096497809495219</v>
       </c>
       <c r="C27" t="n">
-        <v>0.03119991135517451</v>
+        <v>0.03119991135517595</v>
       </c>
       <c r="D27" t="n">
-        <v>1.488191936756024</v>
+        <v>1.488191936756093</v>
       </c>
       <c r="E27" t="n">
-        <v>0.03160754131181022</v>
+        <v>0.0316075413118104</v>
       </c>
       <c r="F27" t="n">
-        <v>1.507635312980388</v>
+        <v>1.507635312980397</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.03140164360075731</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.497814281442917</v>
       </c>
     </row>
     <row r="28">
@@ -2497,16 +3113,22 @@
         <v>0.01677198247596176</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02587140814959918</v>
+        <v>0.02587140814951671</v>
       </c>
       <c r="D28" t="n">
-        <v>1.542537275285081</v>
+        <v>1.542537275280163</v>
       </c>
       <c r="E28" t="n">
-        <v>0.02607263235652083</v>
+        <v>0.02607263235652296</v>
       </c>
       <c r="F28" t="n">
-        <v>1.554534915230749</v>
+        <v>1.554534915230876</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.02594217985769153</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.546756914090081</v>
       </c>
     </row>
     <row r="29">
@@ -2517,16 +3139,22 @@
         <v>0.0125789868569713</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01942470187415416</v>
+        <v>0.0194247018741578</v>
       </c>
       <c r="D29" t="n">
-        <v>1.54421831384528</v>
+        <v>1.544218313845569</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01875113042702828</v>
+        <v>0.01875113042702956</v>
       </c>
       <c r="F29" t="n">
-        <v>1.490670961042969</v>
+        <v>1.49067096104307</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.01928531932652772</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.533137727689075</v>
       </c>
     </row>
     <row r="30">
@@ -2537,16 +3165,22 @@
         <v>0.008385991237980882</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01288939984797918</v>
+        <v>0.01288939984797915</v>
       </c>
       <c r="D30" t="n">
-        <v>1.537015658876672</v>
+        <v>1.537015658876668</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01158104820558714</v>
+        <v>0.01158104820558825</v>
       </c>
       <c r="F30" t="n">
-        <v>1.380999321002813</v>
+        <v>1.380999321002945</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.01276724323827804</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.522448912235216</v>
       </c>
     </row>
     <row r="31">
@@ -2557,16 +3191,22 @@
         <v>0.004192995618990437</v>
       </c>
       <c r="C31" t="n">
-        <v>0.007538266298683249</v>
+        <v>0.00753826629867959</v>
       </c>
       <c r="D31" t="n">
-        <v>1.797823557110767</v>
+        <v>1.797823557109894</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00602361355902282</v>
+        <v>0.006023613559023027</v>
       </c>
       <c r="F31" t="n">
-        <v>1.436589518897029</v>
+        <v>1.436589518897078</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.007496793282496195</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.787932534091516</v>
       </c>
     </row>
     <row r="32">
@@ -2588,6 +3228,14 @@
         <v>0</v>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>-0.0005459129345090966</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -2597,16 +3245,22 @@
         <v>-0.004192995618990437</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.008837039595934109</v>
+        <v>-0.008837039595934107</v>
       </c>
       <c r="D33" t="n">
-        <v>2.107571864828668</v>
+        <v>2.107571864828667</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.007677034774624726</v>
+        <v>-0.007677034774624774</v>
       </c>
       <c r="F33" t="n">
-        <v>1.830918863796274</v>
+        <v>1.830918863796286</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.008798400335668942</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.098356672690101</v>
       </c>
     </row>
     <row r="34">
@@ -2617,16 +3271,22 @@
         <v>-0.008385991237980882</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0171359893396719</v>
+        <v>-0.01713598933967831</v>
       </c>
       <c r="D34" t="n">
-        <v>2.04340653995219</v>
+        <v>2.043406539952955</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.01635981565601145</v>
+        <v>-0.01635981565601149</v>
       </c>
       <c r="F34" t="n">
-        <v>1.950850554424196</v>
+        <v>1.9508505544242</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.01705213695453878</v>
+      </c>
+      <c r="H34" t="n">
+        <v>2.033407437549919</v>
       </c>
     </row>
     <row r="35">
@@ -2637,16 +3297,22 @@
         <v>-0.0125789868569713</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.02563493885649162</v>
+        <v>-0.02563493885645792</v>
       </c>
       <c r="D35" t="n">
-        <v>2.037917611964486</v>
+        <v>2.037917611961808</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.02533012070452426</v>
+        <v>-0.02533012070452411</v>
       </c>
       <c r="F35" t="n">
-        <v>2.013685282649472</v>
+        <v>2.013685282649461</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.02555593342877472</v>
+      </c>
+      <c r="H35" t="n">
+        <v>2.031636865461193</v>
       </c>
     </row>
     <row r="36">
@@ -2657,16 +3323,22 @@
         <v>-0.01677198247596176</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.03223417602349314</v>
+        <v>-0.03223417602297175</v>
       </c>
       <c r="D36" t="n">
-        <v>1.921906135407211</v>
+        <v>1.921906135376124</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.03205729056169288</v>
+        <v>-0.03205729056214889</v>
       </c>
       <c r="F36" t="n">
-        <v>1.911359650395449</v>
+        <v>1.911359650422638</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.03216142303477569</v>
+      </c>
+      <c r="H36" t="n">
+        <v>1.917568366224485</v>
       </c>
     </row>
     <row r="37">
@@ -2677,16 +3349,22 @@
         <v>-0.02096497809495219</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.04011723519922666</v>
+        <v>-0.04011723519939749</v>
       </c>
       <c r="D37" t="n">
-        <v>1.913535755560166</v>
+        <v>1.913535755568314</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.03992087443719456</v>
+        <v>-0.0399208744373351</v>
       </c>
       <c r="F37" t="n">
-        <v>1.904169623091877</v>
+        <v>1.904169623098581</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.04000311376668116</v>
+      </c>
+      <c r="H37" t="n">
+        <v>1.908092323564738</v>
       </c>
     </row>
     <row r="38">
@@ -2697,16 +3375,22 @@
         <v>-0.02515797371394265</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.04839697003643551</v>
+        <v>-0.04839697003641082</v>
       </c>
       <c r="D38" t="n">
-        <v>1.923722895441842</v>
+        <v>1.923722895440861</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.04910409656379131</v>
+        <v>-0.0491040965638271</v>
       </c>
       <c r="F38" t="n">
-        <v>1.951830346995618</v>
+        <v>1.95183034699704</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.0489626546842804</v>
+      </c>
+      <c r="H38" t="n">
+        <v>1.946208197886188</v>
       </c>
     </row>
     <row r="39">
@@ -2717,16 +3401,22 @@
         <v>-0.02935096933293307</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.05465935712822662</v>
+        <v>-0.0546593571266264</v>
       </c>
       <c r="D39" t="n">
-        <v>1.862267528823876</v>
+        <v>1.862267528769356</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.05509677016611658</v>
+        <v>-0.05509677016625518</v>
       </c>
       <c r="F39" t="n">
-        <v>1.877170376935238</v>
+        <v>1.87717037693996</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.05505835171990169</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1.875861444143986</v>
       </c>
     </row>
     <row r="40">
@@ -2737,16 +3427,22 @@
         <v>-0.03354396495192353</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.062765913831963</v>
+        <v>-0.06276591382950145</v>
       </c>
       <c r="D40" t="n">
-        <v>1.871153691041637</v>
+        <v>1.871153690968254</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.05893635472626443</v>
+        <v>-0.05893635472626498</v>
       </c>
       <c r="F40" t="n">
-        <v>1.756988322958667</v>
+        <v>1.756988322958684</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.05907613213921627</v>
+      </c>
+      <c r="H40" t="n">
+        <v>1.761155314343024</v>
       </c>
     </row>
     <row r="41">
@@ -2757,16 +3453,22 @@
         <v>-0.03773696057091395</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.06872544968973773</v>
+        <v>-0.06876271829857454</v>
       </c>
       <c r="D41" t="n">
-        <v>1.821170773957572</v>
+        <v>1.822158363002184</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.06312317648926666</v>
+        <v>-0.06312317648907889</v>
       </c>
       <c r="F41" t="n">
-        <v>1.672714906931835</v>
+        <v>1.672714906926859</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.06326047591574256</v>
+      </c>
+      <c r="H41" t="n">
+        <v>1.676353234566036</v>
       </c>
     </row>
     <row r="42">
@@ -2777,16 +3479,22 @@
         <v>-0.04192995618990437</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.06267017309689071</v>
+        <v>-0.06289493428485657</v>
       </c>
       <c r="D42" t="n">
-        <v>1.494639603558184</v>
+        <v>1.5</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.06667710292725743</v>
+        <v>-0.06667710292724975</v>
       </c>
       <c r="F42" t="n">
-        <v>1.590202065207774</v>
+        <v>1.590202065207591</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.06647632083585742</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1.585413553374119</v>
       </c>
     </row>
   </sheetData>
